--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy6rey\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8887FA1F-12D8-471F-ADD5-45FCC5FBC321}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB60F17-0CD2-466C-8035-9471608D014A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>Explotación y lanzamiento del producto/Diseño del producto</t>
   </si>
   <si>
-    <t>Efrén Arias Jordán</t>
-  </si>
-  <si>
     <t>Analista</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Desarrollo del proyecto y reuniones con el cliente.</t>
   </si>
   <si>
-    <t>José Ángel Taboada González</t>
-  </si>
-  <si>
     <t>Email: ja.taboada.fernandez@geisoft.com</t>
   </si>
   <si>
@@ -640,6 +634,12 @@
   </si>
   <si>
     <t>Obtener una relación agradable que permita a todos los comercios de la zona funcionar de una forma adecuada</t>
+  </si>
+  <si>
+    <t>José Ángel Taboada González (Analista de requisitos 2)</t>
+  </si>
+  <si>
+    <t>Efrén Arias Jordán (Analista de requisitos 1)</t>
   </si>
 </sst>
 </file>
@@ -908,11 +908,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,23 +1383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1578,7 +1578,7 @@
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -1587,16 +1587,16 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>29</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1622,16 +1622,16 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>29</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1718,25 +1718,25 @@
     </row>
     <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>21</v>
@@ -1745,7 +1745,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>13</v>
@@ -1753,25 +1753,25 @@
     </row>
     <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
@@ -1780,7 +1780,7 @@
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>13</v>
@@ -1788,34 +1788,34 @@
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>13</v>
@@ -1823,69 +1823,69 @@
     </row>
     <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H15" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>13</v>
@@ -1893,34 +1893,34 @@
     </row>
     <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>13</v>
@@ -1928,34 +1928,34 @@
     </row>
     <row r="17" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>13</v>
@@ -1963,34 +1963,34 @@
     </row>
     <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>13</v>
@@ -1998,34 +1998,34 @@
     </row>
     <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>13</v>
@@ -2033,104 +2033,104 @@
     </row>
     <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K21" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>13</v>
@@ -2138,34 +2138,34 @@
     </row>
     <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>13</v>
@@ -2173,280 +2173,280 @@
     </row>
     <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>171</v>
+      <c r="H24" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="H27" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>171</v>
+        <v>194</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>13</v>
@@ -2454,34 +2454,34 @@
     </row>
     <row r="32" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>13</v>
@@ -2489,72 +2489,72 @@
     </row>
     <row r="33" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">

--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy6rey\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\USC\Cuarto\XesPro\Proxecto\Correcion\Interesados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB60F17-0CD2-466C-8035-9471608D014A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1400116-FFDD-4F0A-8AA7-43202DCDF619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="204">
   <si>
     <t>IDENTIFICACIÓN</t>
   </si>
@@ -69,9 +75,6 @@
     <t>Apoyo</t>
   </si>
   <si>
-    <t>Sergio Rey Blanco (Director de Proyecto)</t>
-  </si>
-  <si>
     <t>GEI SOFT S.L.</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
     <t>Líder del Proyecto</t>
   </si>
   <si>
-    <t>Email : sergio.rey.blanco@geisoft.com</t>
-  </si>
-  <si>
     <t>Cumplir con el plan del proyecto</t>
   </si>
   <si>
@@ -99,51 +99,12 @@
     <t>Interno</t>
   </si>
   <si>
-    <t>Germán Rodríguez Alonso (Asegurador de la calidad)</t>
-  </si>
-  <si>
     <t>Miembro de equipo de proyecto</t>
   </si>
   <si>
-    <t>Email : german.rodriguez.alonso@geisoft.com</t>
-  </si>
-  <si>
-    <t>Realizar auditorías de calidad exitosas</t>
-  </si>
-  <si>
-    <t>Alcanzamiento de un sistema con unas condiciones de calidad elevadas y satisfacción del cliente</t>
-  </si>
-  <si>
     <t>MEDIO-ALTO</t>
   </si>
   <si>
-    <t>Auditorías de calidad y revisiones</t>
-  </si>
-  <si>
-    <t>Abraham Rial Carreira (Gestor de configuración)</t>
-  </si>
-  <si>
-    <t>Email : abraham.rial.carreira@geisoft.com</t>
-  </si>
-  <si>
-    <t>Llevar a cabo el proceso de gestión de la configuración a lo largo de todo el proyecto</t>
-  </si>
-  <si>
-    <t>Obtención de una línea de base coherente y correcta a lo largo de todo el proyecto</t>
-  </si>
-  <si>
-    <t>Rodrigo Rey Duarte (Gestor documental)</t>
-  </si>
-  <si>
-    <t>Email : rodrigo.rey.duarte@geisoft.com</t>
-  </si>
-  <si>
-    <t>Producción de la documentación del proyecto</t>
-  </si>
-  <si>
-    <t>Consecución de toda la documentación necesaria en cada instante del proyecto</t>
-  </si>
-  <si>
     <t>José María Ordóñez Gutiérrez (CEO de la empresa)</t>
   </si>
   <si>
@@ -174,18 +135,6 @@
     <t>Explotación y lanzamiento del producto/Diseño del producto</t>
   </si>
   <si>
-    <t>Analista</t>
-  </si>
-  <si>
-    <t>Email: efren.arias.jordan@geisoft.com</t>
-  </si>
-  <si>
-    <t>Desarrollo del proyecto y reuniones con el cliente.</t>
-  </si>
-  <si>
-    <t>Email: ja.taboada.fernandez@geisoft.com</t>
-  </si>
-  <si>
     <t>DevQRCodeScanner</t>
   </si>
   <si>
@@ -444,21 +393,6 @@
     <t>Llegada a acuerdos positivos para el proyecto. Buena comunicación con GEI SOFT S.L.</t>
   </si>
   <si>
-    <t>Responsable del proyecto por parte de Ejo S.L.</t>
-  </si>
-  <si>
-    <t>jefeproyecto@ejosl.com</t>
-  </si>
-  <si>
-    <t>Comunicación con GEI SOFT S.L sobre el proyecto</t>
-  </si>
-  <si>
-    <t>Comunicación fluída y positiva con GEI SOFT S.L. sobre el proyecto.</t>
-  </si>
-  <si>
-    <t>Desarrollo satisfactorio del proyecto. Obtención de información útil del cliente.</t>
-  </si>
-  <si>
     <t>Empleados local</t>
   </si>
   <si>
@@ -498,9 +432,6 @@
     <t>CEO cliente</t>
   </si>
   <si>
-    <t>Contacto empresa cliente</t>
-  </si>
-  <si>
     <t>Proveedor TPV y NFC</t>
   </si>
   <si>
@@ -639,7 +570,79 @@
     <t>José Ángel Taboada González (Analista de requisitos 2)</t>
   </si>
   <si>
-    <t>Efrén Arias Jordán (Analista de requisitos 1)</t>
+    <t>Email : director@geisoft.com</t>
+  </si>
+  <si>
+    <t>Analista-Programador</t>
+  </si>
+  <si>
+    <t>Email : analistaP@geisoft.com</t>
+  </si>
+  <si>
+    <t>Email : analistaD@geisoft.com</t>
+  </si>
+  <si>
+    <t>Email : programadorS@geisoft.com</t>
+  </si>
+  <si>
+    <t>Analista-Diseñador</t>
+  </si>
+  <si>
+    <t>Programador Senior</t>
+  </si>
+  <si>
+    <t>Programador Junior 1</t>
+  </si>
+  <si>
+    <t>Programador Junior 2</t>
+  </si>
+  <si>
+    <t>Email: efren.arias.jordan@ejosl.com</t>
+  </si>
+  <si>
+    <t>Email: ja.taboada.fernandez@ejosl.com</t>
+  </si>
+  <si>
+    <t>Email : programadorJ1@geisoft.com</t>
+  </si>
+  <si>
+    <t>Email : programadorJ2@geisoft.com</t>
+  </si>
+  <si>
+    <t>Realizar labores de análisis del proyecto y de programación.</t>
+  </si>
+  <si>
+    <t>Labores de programación de menor importancia.</t>
+  </si>
+  <si>
+    <t>Labores de programación que requieren de mayor experiencia.</t>
+  </si>
+  <si>
+    <t>Realizar labores de análisis y diseño del proyecto.</t>
+  </si>
+  <si>
+    <t>Realizar un buen trabajo de análisis y programación.</t>
+  </si>
+  <si>
+    <t>Realizar un buen trabajo de análisis y diseño.</t>
+  </si>
+  <si>
+    <t>Programar buen código de forma eficaz.</t>
+  </si>
+  <si>
+    <t>Proporcionar información para el correcto desarrollo del proyecto.</t>
+  </si>
+  <si>
+    <t>Director del proyecto</t>
+  </si>
+  <si>
+    <t>Mantener buena comunicación con el equipo del proyecto y proporcionar información útil y verídica.</t>
+  </si>
+  <si>
+    <t>Efrén Arias Jordán (Analista de re1)</t>
+  </si>
+  <si>
+    <t>Comunicación con el equipo.</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -896,15 +899,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1361,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,23 +1377,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1438,69 +1432,69 @@
     </row>
     <row r="3" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
@@ -1508,69 +1502,69 @@
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>13</v>
@@ -1578,34 +1572,34 @@
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>13</v>
@@ -1613,174 +1607,174 @@
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>136</v>
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>13</v>
@@ -1788,34 +1782,34 @@
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>13</v>
@@ -1823,104 +1817,104 @@
     </row>
     <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>127</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>13</v>
@@ -1928,69 +1922,69 @@
     </row>
     <row r="17" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>13</v>
@@ -1998,34 +1992,34 @@
     </row>
     <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>13</v>
@@ -2033,177 +2027,177 @@
     </row>
     <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
+      <c r="H20" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="10" t="s">
+    <row r="24" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2211,277 +2205,277 @@
         <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>21</v>
+      <c r="H25" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>169</v>
+        <v>98</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>71</v>
+        <v>169</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>13</v>
@@ -2489,87 +2483,111 @@
     </row>
     <row r="33" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>104</v>
+        <v>175</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
+      <c r="L36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2592,7 +2610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -2607,7 +2625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -2622,22 +2640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>"ALTO"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -2652,7 +2655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -2668,25 +2671,25 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E25" r:id="rId8" display="informacion@santiagodecompostela.gal" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E27" r:id="rId9" display="http://www.riosarela.org/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{82932D09-2CD0-4E1C-BD85-D1EF0CF797FB}"/>
-    <hyperlink ref="E29" r:id="rId12" display="Email:  administracion@sogama.es" xr:uid="{325E3697-82EC-4422-836A-89D0E92DB85E}"/>
-    <hyperlink ref="E30" r:id="rId13" display="Email:  administracion@sogama.es" xr:uid="{81EC342B-72A6-4BEA-AFAA-671C0B27D770}"/>
-    <hyperlink ref="E31" r:id="rId14" display="Email:  administracion@sogama.es" xr:uid="{77469BCA-DBF8-4A39-BB0D-E41219F62918}"/>
-    <hyperlink ref="E32" r:id="rId15" display="Email:  administracion@sogama.es" xr:uid="{57E0EBDB-CD52-4C5F-AAE8-D10D0802F551}"/>
-    <hyperlink ref="E33" r:id="rId16" display="Email:  administracion@sogama.es" xr:uid="{5F750937-2B5A-4D78-A09E-B4AFC1D2A539}"/>
-    <hyperlink ref="E26" r:id="rId17" display="Email:  administracion@sogama.es" xr:uid="{174F105A-F895-428C-997E-FDDEE0195831}"/>
-    <hyperlink ref="E24" r:id="rId18" display="Email:  administracion@sogama.es" xr:uid="{368AA3E9-7D55-4B82-8DC2-D7C8A6206673}"/>
-    <hyperlink ref="E34" r:id="rId19" display="Email:  administracion@sogama.es" xr:uid="{6ACE38E6-B4C9-49AB-8214-5A1B5456F958}"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E26" r:id="rId8" display="informacion@santiagodecompostela.gal" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E28" r:id="rId9" display="http://www.riosarela.org/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{82932D09-2CD0-4E1C-BD85-D1EF0CF797FB}"/>
+    <hyperlink ref="E30" r:id="rId12" display="Email:  administracion@sogama.es" xr:uid="{325E3697-82EC-4422-836A-89D0E92DB85E}"/>
+    <hyperlink ref="E31" r:id="rId13" display="Email:  administracion@sogama.es" xr:uid="{81EC342B-72A6-4BEA-AFAA-671C0B27D770}"/>
+    <hyperlink ref="E32" r:id="rId14" display="Email:  administracion@sogama.es" xr:uid="{77469BCA-DBF8-4A39-BB0D-E41219F62918}"/>
+    <hyperlink ref="E33" r:id="rId15" display="Email:  administracion@sogama.es" xr:uid="{57E0EBDB-CD52-4C5F-AAE8-D10D0802F551}"/>
+    <hyperlink ref="E34" r:id="rId16" display="Email:  administracion@sogama.es" xr:uid="{5F750937-2B5A-4D78-A09E-B4AFC1D2A539}"/>
+    <hyperlink ref="E27" r:id="rId17" display="Email:  administracion@sogama.es" xr:uid="{174F105A-F895-428C-997E-FDDEE0195831}"/>
+    <hyperlink ref="E25" r:id="rId18" display="Email:  administracion@sogama.es" xr:uid="{368AA3E9-7D55-4B82-8DC2-D7C8A6206673}"/>
+    <hyperlink ref="E35" r:id="rId19" display="Email:  administracion@sogama.es" xr:uid="{6ACE38E6-B4C9-49AB-8214-5A1B5456F958}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>

--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\USC\Cuarto\XesPro\Proxecto\Correcion\Interesados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1400116-FFDD-4F0A-8AA7-43202DCDF619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F4BC2-6DD1-4DBE-9120-AF776C184505}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,9 +567,6 @@
     <t>Obtener una relación agradable que permita a todos los comercios de la zona funcionar de una forma adecuada</t>
   </si>
   <si>
-    <t>José Ángel Taboada González (Analista de requisitos 2)</t>
-  </si>
-  <si>
     <t>Email : director@geisoft.com</t>
   </si>
   <si>
@@ -639,10 +636,13 @@
     <t>Mantener buena comunicación con el equipo del proyecto y proporcionar información útil y verídica.</t>
   </si>
   <si>
-    <t>Efrén Arias Jordán (Analista de re1)</t>
-  </si>
-  <si>
     <t>Comunicación con el equipo.</t>
+  </si>
+  <si>
+    <t>Efrén Arias Jordán (comunicación con EjoSL 1)</t>
+  </si>
+  <si>
+    <t>José Ángel Taboada González (comunicación con EjoSL 2)</t>
   </si>
 </sst>
 </file>
@@ -914,17 +914,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1356,7 +1346,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,7 +1422,7 @@
     </row>
     <row r="3" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1444,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -1467,7 +1457,7 @@
     </row>
     <row r="4" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -1479,13 +1469,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>23</v>
@@ -1502,7 +1492,7 @@
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -1514,13 +1504,13 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>23</v>
@@ -1537,7 +1527,7 @@
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1549,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>23</v>
@@ -1572,7 +1562,7 @@
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1584,13 +1574,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>23</v>
@@ -1607,7 +1597,7 @@
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1619,13 +1609,13 @@
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>23</v>
@@ -1651,16 +1641,16 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>23</v>
@@ -1677,7 +1667,7 @@
     </row>
     <row r="10" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>115</v>
@@ -1686,16 +1676,16 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>23</v>
@@ -2596,7 +2586,7 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="13">
@@ -2611,7 +2601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -2626,7 +2616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">

--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MTI_181018_MatrizDeInteresados_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy6rey\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F4BC2-6DD1-4DBE-9120-AF776C184505}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8D15F-F9CB-4885-8F23-3B7BE2BAB2D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="214">
   <si>
     <t>IDENTIFICACIÓN</t>
   </si>
@@ -643,13 +643,43 @@
   </si>
   <si>
     <t>José Ángel Taboada González (comunicación con EjoSL 2)</t>
+  </si>
+  <si>
+    <t>Octavio Gómez Azada (abogado de GEISOFT)</t>
+  </si>
+  <si>
+    <t>Representante legal de GEISOFT</t>
+  </si>
+  <si>
+    <t>Jaime Fungeiriño Freire (abogado de EjoSL)</t>
+  </si>
+  <si>
+    <t>Representante legal de EjoSL</t>
+  </si>
+  <si>
+    <t>Email : jaime.fungeirinho@geisoft.com</t>
+  </si>
+  <si>
+    <t>Email : octavio.gomez@ejosl.com</t>
+  </si>
+  <si>
+    <t>Llevar a cabo los trámites legales por la parte de GEI SOFT</t>
+  </si>
+  <si>
+    <t>Llevar a cabo los trámites legales por la parte de EjoSL</t>
+  </si>
+  <si>
+    <t>Representar de forma adecuada los intereses legales de GEI SOFT</t>
+  </si>
+  <si>
+    <t>Representar de forma adecuada los intereses legales de EjoSL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -680,13 +710,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -707,7 +730,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,12 +759,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEBF7"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
     <fill>
@@ -844,10 +861,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -858,38 +875,35 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,11 +912,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1343,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,23 +1381,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1421,7 +1435,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1442,7 +1456,7 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1451,12 +1465,12 @@
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1477,7 +1491,7 @@
       <c r="G4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1486,12 +1500,12 @@
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1512,7 +1526,7 @@
       <c r="G5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1521,12 +1535,12 @@
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1547,7 +1561,7 @@
       <c r="G6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1556,12 +1570,12 @@
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1582,7 +1596,7 @@
       <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1591,12 +1605,12 @@
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1617,7 +1631,7 @@
       <c r="G8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1626,12 +1640,12 @@
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1652,7 +1666,7 @@
       <c r="G9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1661,12 +1675,12 @@
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1687,7 +1701,7 @@
       <c r="G10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1696,12 +1710,12 @@
       <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1731,12 +1745,12 @@
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1748,7 +1762,7 @@
       <c r="D12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>117</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1766,12 +1780,12 @@
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1792,7 +1806,7 @@
       <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1801,12 +1815,12 @@
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1818,7 +1832,7 @@
       <c r="D14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1827,7 +1841,7 @@
       <c r="G14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1836,12 +1850,12 @@
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1853,7 +1867,7 @@
       <c r="D15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1862,7 +1876,7 @@
       <c r="G15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1871,12 +1885,12 @@
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1897,7 +1911,7 @@
       <c r="G16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1906,12 +1920,12 @@
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1932,7 +1946,7 @@
       <c r="G17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1941,12 +1955,12 @@
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1967,7 +1981,7 @@
       <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1976,12 +1990,12 @@
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2002,7 +2016,7 @@
       <c r="G19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2011,12 +2025,12 @@
       <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2037,7 +2051,7 @@
       <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2046,12 +2060,12 @@
       <c r="J20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2081,12 +2095,12 @@
       <c r="J21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2107,7 +2121,7 @@
       <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2116,47 +2130,47 @@
       <c r="J22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2177,7 +2191,7 @@
       <c r="G24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2186,12 +2200,12 @@
       <c r="J24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2212,7 +2226,7 @@
       <c r="G25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="19" t="s">
         <v>144</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2221,12 +2235,12 @@
       <c r="J25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2256,12 +2270,12 @@
       <c r="J26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2282,7 +2296,7 @@
       <c r="G27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2291,13 +2305,13 @@
       <c r="J27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N27" s="14"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2318,7 +2332,7 @@
       <c r="G28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2327,12 +2341,12 @@
       <c r="J28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2353,7 +2367,7 @@
       <c r="G29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="19" t="s">
         <v>144</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2362,12 +2376,12 @@
       <c r="J29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2388,7 +2402,7 @@
       <c r="G30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2397,12 +2411,12 @@
       <c r="J30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2423,7 +2437,7 @@
       <c r="G31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="19" t="s">
         <v>144</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2432,12 +2446,12 @@
       <c r="J31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2458,7 +2472,7 @@
       <c r="G32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2467,12 +2481,12 @@
       <c r="J32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2493,7 +2507,7 @@
       <c r="G33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2502,12 +2516,12 @@
       <c r="J33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2528,7 +2542,7 @@
       <c r="G34" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2537,12 +2551,12 @@
       <c r="J34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2563,7 +2577,7 @@
       <c r="G35" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -2572,12 +2586,80 @@
       <c r="J35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L36" s="19"/>
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
